--- a/Documentation Source/source/hardware bom.xlsx
+++ b/Documentation Source/source/hardware bom.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,183 +27,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Lasercut Acrylic</t>
   </si>
   <si>
-    <t>Nema 12 200 step motor</t>
-  </si>
-  <si>
-    <t>200 x 8 mm Shaft</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
+    <t>https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Price ($/QTY)</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Included QTY</t>
+  </si>
+  <si>
+    <t>Ponoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 x 8mm lead screw </t>
+  </si>
+  <si>
+    <t>5 mm to 8 mm coupler</t>
+  </si>
+  <si>
+    <t>B01M287GNY</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011</t>
+  </si>
+  <si>
+    <t>B00NQ2H8YU</t>
+  </si>
+  <si>
+    <t>link text</t>
+  </si>
+  <si>
+    <t>Flanged LMF8UU slide bearing</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>Grommet</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#9600k54</t>
+  </si>
+  <si>
+    <t>9600k54</t>
+  </si>
+  <si>
+    <t>94510A245</t>
+  </si>
+  <si>
+    <t>92005A220</t>
+  </si>
+  <si>
+    <t>94510A240</t>
+  </si>
+  <si>
+    <t>92005A116</t>
+  </si>
+  <si>
+    <t>12755t73</t>
+  </si>
+  <si>
+    <t>Binder clips</t>
+  </si>
+  <si>
+    <t>M3 x 6mm machine screws</t>
+  </si>
+  <si>
+    <t>M3 Threaded inserts</t>
+  </si>
+  <si>
+    <t>M4 x 10mm machine screws</t>
+  </si>
+  <si>
+    <t>M4 Threaded inserts</t>
+  </si>
+  <si>
+    <t>96887A329</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#96887A329</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#12755t73</t>
+  </si>
+  <si>
+    <t>M4  square nut</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#92005a116/=14rtkpw</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#94510A240</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#92005a220/=14rtly7</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#94510A245</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Stepping-Motor-26Ncm-36-8oz-Printer/dp/B00PNEQ9T4/ref=sr_1_2?ie=UTF8&amp;qid=1488570003&amp;sr=8-2&amp;keywords=stepper+motor+nema+17</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TriGorilla-Accessories-Aluminum-Coupling-Connector/dp/B01FJAK4NS/ref=sr_1_3?s=industrial&amp;ie=UTF8&amp;qid=1488812597&amp;sr=1-3&amp;keywords=5mm+to+8mm+coupler</t>
+  </si>
+  <si>
+    <t>http://www.omc-stepperonline.com/5mm-8mm-rigid-coupling-25x30mm-for-cnc-stepper-motor-strc03-p-335.html</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://www.servocity.com/lead-screws#371=448</t>
+  </si>
+  <si>
+    <t>ServoCity</t>
+  </si>
+  <si>
+    <t>https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460</t>
+  </si>
+  <si>
+    <t>200 x  8 mm shaft</t>
+  </si>
+  <si>
+    <t>https://www.servocity.com/8mm-4-start-hub</t>
+  </si>
+  <si>
+    <t>8mm lead screw nut</t>
+  </si>
+  <si>
+    <t>17HS13-0404S</t>
+  </si>
+  <si>
+    <t>http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html</t>
+  </si>
+  <si>
+    <t>STEPPERONLINE</t>
+  </si>
+  <si>
+    <t>Nema 17  12v 26Ncm 200steps</t>
+  </si>
+  <si>
     <t>Amazon</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Price ($/QTY)</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Included QTY</t>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>Ponoko</t>
-  </si>
-  <si>
-    <t>B01H1S8ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 x 8mm lead screw </t>
-  </si>
-  <si>
-    <t>8 mm lead nut</t>
-  </si>
-  <si>
-    <t>8 mm rotary bearing</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BIQU-Copper-Coupler-Bearing-Printer/dp/B01H1S8ASC/ref=sr_1_5?s=industrial&amp;ie=UTF8&amp;qid=1488495367&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>5 mm to 8 mm coupler</t>
-  </si>
-  <si>
-    <t>B01M287GNY</t>
-  </si>
-  <si>
-    <t>B00JEYSRJ4</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/products/324</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BQLZR-Drive-Cylinder-Linear-Optical/dp/B00JEYSRJ4/ref=sr_1_1?ie=UTF8&amp;qid=1488498346&amp;sr=8-1&amp;keywords=B00JEYSRJ4</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011</t>
-  </si>
-  <si>
-    <t>B00NQ2H8YU</t>
-  </si>
-  <si>
-    <t>link text</t>
-  </si>
-  <si>
-    <t>8 mm shaft support</t>
-  </si>
-  <si>
-    <t>Flanged LMF8UU slide bearing</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Flanged-Shaft-Support-Block-Supporter/dp/B002BBIUG2/ref=sr_1_5?s=industrial&amp;ie=UTF8&amp;qid=1488499088&amp;sr=1-5&amp;keywords=8mm+shaft+support#detail-bullets</t>
-  </si>
-  <si>
-    <t>B002BBIUG2</t>
-  </si>
-  <si>
-    <t>McMaster-Carr</t>
-  </si>
-  <si>
-    <t>Grommet</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#9600k54</t>
-  </si>
-  <si>
-    <t>9600k54</t>
-  </si>
-  <si>
-    <t>94510A245</t>
-  </si>
-  <si>
-    <t>92005A220</t>
-  </si>
-  <si>
-    <t>94510A240</t>
-  </si>
-  <si>
-    <t>92005A116</t>
-  </si>
-  <si>
-    <t>12755t73</t>
-  </si>
-  <si>
-    <t>Binder clips</t>
-  </si>
-  <si>
-    <t>M3 x 6mm machine screws</t>
-  </si>
-  <si>
-    <t>M3 Threaded inserts</t>
-  </si>
-  <si>
-    <t>M4 x 10mm machine screws</t>
-  </si>
-  <si>
-    <t>M4 Threaded inserts</t>
-  </si>
-  <si>
-    <t>96887A329</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#96887A329</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#12755t73</t>
-  </si>
-  <si>
-    <t>M4  square nut</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#92005a116/=14rtkpw</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#94510A240</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#92005a220/=14rtly7</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#94510A245</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Stepping-Motor-26Ncm-36-8oz-Printer/dp/B00PNEQ9T4/ref=sr_1_2?ie=UTF8&amp;qid=1488570003&amp;sr=8-2&amp;keywords=stepper+motor+nema+17</t>
-  </si>
-  <si>
-    <t>Alternative</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/TriGorilla-Accessories-Aluminum-Coupling-Connector/dp/B01FJAK4NS/ref=sr_1_3?s=industrial&amp;ie=UTF8&amp;qid=1488812597&amp;sr=1-3&amp;keywords=5mm+to+8mm+coupler</t>
-  </si>
-  <si>
-    <t>http://www.omc-stepperonline.com/5mm-8mm-rigid-coupling-25x30mm-for-cnc-stepper-motor-strc03-p-335.html</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -260,18 +251,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -284,7 +266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -587,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
@@ -608,466 +587,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
         <v>` &lt;&gt;`_</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" ref="I2:I15" si="0">C2/H2</f>
+        <v>22.333333333333332</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>9.99</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>CONCATENATE("`",F3," &lt;",G3,"&gt;`_")</f>
-        <v>`324 &lt;https://www.adafruit.com/products/324&gt;`_</v>
+        <v>`634050 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1">
-        <v>324</v>
+        <v>634050</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>C3/H3</f>
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
+      <c r="A4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>CONCATENATE("`",F4," &lt;",G4,"&gt;`_")</f>
-        <v>`B00JEYSRJ4 &lt;https://www.amazon.com/BQLZR-Drive-Cylinder-Linear-Optical/dp/B00JEYSRJ4/ref=sr_1_1?ie=UTF8&amp;qid=1488498346&amp;sr=8-1&amp;keywords=B00JEYSRJ4&gt;`_</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
+      </c>
+      <c r="F4" s="1">
+        <v>545315</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I17" si="0">C4/H4</f>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>C4/H4</f>
+        <v>7.99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>3.49</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>CONCATENATE("`",F5," &lt;",G5,"&gt;`_")</f>
+        <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
+      </c>
+      <c r="F5" s="1">
+        <v>634310</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f>C5/H5</f>
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>CONCATENATE("`",F6," &lt;",G6,"&gt;`_")</f>
+        <v>`17HS13-0404S &lt;http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html&gt;`_</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f>C6/H6</f>
+        <v>6.97</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>CONCATENATE("`",F7," &lt;",G7,"&gt;`_")</f>
         <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>CONCATENATE("`",F8," &lt;",G8,"&gt;`_")</f>
+        <v>`B00NQ2H8YU &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011&gt;`_</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>CONCATENATE("`",F6," &lt;",G6,"&gt;`_")</f>
-        <v>`B01H1S8ASC &lt;https://www.amazon.com/BIQU-Copper-Coupler-Bearing-Printer/dp/B01H1S8ASC/ref=sr_1_5?s=industrial&amp;ie=UTF8&amp;qid=1488495367&amp;sr=1-5&gt;`_</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
-        <v>`B00NQ2H8YU &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011&gt;`_</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" ref="D9:D15" si="1">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
+        <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>2</v>
+      <c r="A10" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10:D17" si="1">CONCATENATE("`",F10," &lt;",G10,"&gt;`_")</f>
-        <v>`B002BBIUG2 &lt;https://www.amazon.com/Flanged-Shaft-Support-Block-Supporter/dp/B002BBIUG2/ref=sr_1_5?s=industrial&amp;ie=UTF8&amp;qid=1488499088&amp;sr=1-5&amp;keywords=8mm+shaft+support#detail-bullets&gt;`_</v>
+        <f t="shared" si="1"/>
+        <v>`94510A245 &lt;https://www.mcmaster.com/#94510A245&gt;`_</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>`92005A220 &lt;https://www.mcmaster.com/#92005a220/=14rtly7&gt;`_</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>58</v>
+      <c r="A12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`94510A245 &lt;https://www.mcmaster.com/#94510A245&gt;`_</v>
+        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1">
         <v>50</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>58</v>
+      <c r="A13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`92005A220 &lt;https://www.mcmaster.com/#92005a220/=14rtly7&gt;`_</v>
+        <v>`92005A116 &lt;https://www.mcmaster.com/#92005a116/=14rtkpw&gt;`_</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>58</v>
+      <c r="A14" s="6">
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1">
-        <v>50</v>
-      </c>
-      <c r="I14" s="5">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>58</v>
+      <c r="A15" s="6">
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`92005A116 &lt;https://www.mcmaster.com/#92005a116/=14rtkpw&gt;`_</v>
+        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation Source/source/hardware bom.xlsx
+++ b/Documentation Source/source/hardware bom.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Repos/Syringe/Documentation Source/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Repos/karpova_lab/Syringe/Documentation Source/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Lasercut Acrylic</t>
   </si>
@@ -95,36 +95,21 @@
     <t>9600k54</t>
   </si>
   <si>
-    <t>94510A245</t>
-  </si>
-  <si>
     <t>92005A220</t>
   </si>
   <si>
     <t>94510A240</t>
   </si>
   <si>
-    <t>92005A116</t>
-  </si>
-  <si>
     <t>12755t73</t>
   </si>
   <si>
     <t>Binder clips</t>
   </si>
   <si>
-    <t>M3 x 6mm machine screws</t>
-  </si>
-  <si>
     <t>M3 Threaded inserts</t>
   </si>
   <si>
-    <t>M4 x 10mm machine screws</t>
-  </si>
-  <si>
-    <t>M4 Threaded inserts</t>
-  </si>
-  <si>
     <t>96887A329</t>
   </si>
   <si>
@@ -137,18 +122,9 @@
     <t>M4  square nut</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/#92005a116/=14rtkpw</t>
-  </si>
-  <si>
     <t>https://www.mcmaster.com/#94510A240</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/#92005a220/=14rtly7</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#94510A245</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Stepping-Motor-26Ncm-36-8oz-Printer/dp/B00PNEQ9T4/ref=sr_1_2?ie=UTF8&amp;qid=1488570003&amp;sr=8-2&amp;keywords=stepper+motor+nema+17</t>
   </si>
   <si>
@@ -195,6 +171,30 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>M3 x 12mm machine screws</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#92005A122</t>
+  </si>
+  <si>
+    <t>92005A122</t>
+  </si>
+  <si>
+    <t>M4 x 16mm machine screws</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#92005A226</t>
+  </si>
+  <si>
+    <t>Flanged Sleeve Bearing</t>
+  </si>
+  <si>
+    <t>5448T2</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#5448T2</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,12 +577,12 @@
     <col min="1" max="1" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="176.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="159.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -615,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
+        <f t="shared" ref="D2:D8" si="0">CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
         <v>` &lt;&gt;`_</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -639,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I15" si="0">C2/H2</f>
+        <f t="shared" ref="I2:I15" si="1">C2/H2</f>
         <v>22.333333333333332</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -654,17 +654,17 @@
         <v>9.99</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>CONCATENATE("`",F3," &lt;",G3,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`634050 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>634050</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -676,23 +676,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>7.99</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>CONCATENATE("`",F4," &lt;",G4,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
       </c>
       <c r="F4" s="1">
         <v>545315</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -704,23 +704,23 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>3.49</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>CONCATENATE("`",F5," &lt;",G5,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
       </c>
       <c r="F5" s="1">
         <v>634310</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -732,26 +732,26 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>6.97</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>CONCATENATE("`",F6," &lt;",G6,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`17HS13-0404S &lt;http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html&gt;`_</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>6.97</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -775,11 +775,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>CONCATENATE("`",F7," &lt;",G7,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -791,14 +791,14 @@
         <v>2</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>CONCATENATE("`",F8," &lt;",G8,"&gt;`_")</f>
+        <f t="shared" si="0"/>
         <v>`B00NQ2H8YU &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011&gt;`_</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D15" si="1">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
+        <f t="shared" ref="D9:D15" si="2">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
         <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -856,176 +856,176 @@
         <v>50</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>44</v>
+      <c r="A10" s="6">
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>3.32</v>
       </c>
       <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>`5448T2 &lt;https://www.mcmaster.com/#5448T2&gt;`_</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>`94510A245 &lt;https://www.mcmaster.com/#94510A245&gt;`_</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>`92005A220 &lt;https://www.mcmaster.com/#92005A226&gt;`_</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1">
-        <v>50</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>`92005A220 &lt;https://www.mcmaster.com/#92005a220/=14rtly7&gt;`_</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1">
         <v>100</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f t="shared" si="1"/>
+        <v>4.3200000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
+      <c r="A12" s="6">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
+        <f>CONCATENATE("`",F12," &lt;",G12,"&gt;`_")</f>
+        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
+        <f>C12/H12</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
+        <v>`92005A122 &lt;https://www.mcmaster.com/#92005A122&gt;`_</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>`92005A116 &lt;https://www.mcmaster.com/#92005a116/=14rtkpw&gt;`_</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f>C13/H13</f>
+        <v>2.64E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.14400000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
       <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1">
-        <v>100</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation Source/source/hardware bom.xlsx
+++ b/Documentation Source/source/hardware bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Lasercut Acrylic</t>
   </si>
@@ -173,15 +173,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>M3 x 12mm machine screws</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#92005A122</t>
-  </si>
-  <si>
-    <t>92005A122</t>
-  </si>
-  <si>
     <t>M4 x 16mm machine screws</t>
   </si>
   <si>
@@ -195,6 +186,30 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/#5448T2</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#92000A120</t>
+  </si>
+  <si>
+    <t>92000A120</t>
+  </si>
+  <si>
+    <t>M3 x 10mm machine screws</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Bumpers</t>
+  </si>
+  <si>
+    <t>SJ5746-0-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
   </si>
 </sst>
 </file>
@@ -266,7 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,6 +299,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -566,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D8" si="0">CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
@@ -639,8 +657,8 @@
         <v>3</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I15" si="1">C2/H2</f>
-        <v>22.333333333333332</v>
+        <f t="shared" ref="I2:I16" si="1">C2/H2</f>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -831,7 +849,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -840,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D15" si="2">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
+        <f t="shared" ref="D9:D16" si="2">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
         <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -865,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>3.32</v>
@@ -875,10 +893,10 @@
         <v>`5448T2 &lt;https://www.mcmaster.com/#5448T2&gt;`_</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -893,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>4.32</v>
@@ -906,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1">
         <v>100</v>
@@ -946,23 +964,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>2.64</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
-        <v>`92005A122 &lt;https://www.mcmaster.com/#92005A122&gt;`_</v>
+        <v>`92000A120 &lt;https://www.mcmaster.com/#92000A120&gt;`_</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1">
         <v>100</v>
@@ -974,7 +992,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -1002,7 +1020,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -1027,6 +1045,40 @@
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14.31</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>`SJ5746-0-ND &lt;https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456&gt;`_</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="1">
+        <v>144</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>9.9375000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation Source/source/hardware bom.xlsx
+++ b/Documentation Source/source/hardware bom.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Repos/karpova_lab/Syringe/Documentation Source/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
-  <si>
-    <t>Lasercut Acrylic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>link</t>
   </si>
@@ -53,9 +51,6 @@
     <t>Included QTY</t>
   </si>
   <si>
-    <t>Ponoko</t>
-  </si>
-  <si>
     <t xml:space="preserve">300 x 8mm lead screw </t>
   </si>
   <si>
@@ -134,9 +129,6 @@
     <t>https://www.amazon.com/TriGorilla-Accessories-Aluminum-Coupling-Connector/dp/B01FJAK4NS/ref=sr_1_3?s=industrial&amp;ie=UTF8&amp;qid=1488812597&amp;sr=1-3&amp;keywords=5mm+to+8mm+coupler</t>
   </si>
   <si>
-    <t>http://www.omc-stepperonline.com/5mm-8mm-rigid-coupling-25x30mm-for-cnc-stepper-motor-strc03-p-335.html</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -158,18 +150,9 @@
     <t>8mm lead screw nut</t>
   </si>
   <si>
-    <t>17HS13-0404S</t>
-  </si>
-  <si>
-    <t>http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html</t>
-  </si>
-  <si>
     <t>STEPPERONLINE</t>
   </si>
   <si>
-    <t>Nema 17  12v 26Ncm 200steps</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -210,12 +193,57 @@
   </si>
   <si>
     <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=255-5122-nd</t>
+  </si>
+  <si>
+    <t>Limit Switches</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>255-5122-ND</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>6479K78</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#6479K78</t>
+  </si>
+  <si>
+    <t>Nema 17 Bipolar 60Ncm 200steps</t>
+  </si>
+  <si>
+    <t>17HS24-0644S</t>
+  </si>
+  <si>
+    <t>https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s</t>
+  </si>
+  <si>
+    <t>12" x 12" x 1/4"</t>
+  </si>
+  <si>
+    <t>8505K754</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#8505K754</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>THIS IS WRONG, THE QTY 1'S AREN'T UPDATED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -281,7 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -304,6 +332,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -317,8 +352,1092 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cost Per Motor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>133.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.88666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.597499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.836666666666659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.51111111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.070999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A65C-3B41-9D69-3A8838AD9784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1106051967"/>
+        <c:axId val="1106053663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1106051967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Motors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106053663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1106053663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1106051967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2778D54-36CD-D843-ABC3-51CE8F6B3ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,504 +1702,924 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="176.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="159.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="54.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" style="6" customWidth="1"/>
+    <col min="12" max="13" width="11.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="6">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9">
+        <v>9.98</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
+        <v>`8505K754 &lt;https://www.mcmaster.com/#8505K754&gt;`_</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
+      <c r="I2" s="4">
+        <f>C2/H2</f>
+        <v>9.98</v>
+      </c>
+      <c r="J2" s="10">
+        <f>A2*$J$1</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="4">
+        <f>I2*A2*L$1</f>
+        <v>19.96</v>
+      </c>
+      <c r="M2" s="4">
+        <f>(MAX(C2,L2))</f>
+        <v>19.96</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D8" si="0">CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
-        <v>` &lt;&gt;`_</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I16" si="1">C2/H2</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.99</v>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10.52</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>`634050 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1">
-        <v>634050</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
+        <f>CONCATENATE("`",F3," &lt;",G3,"&gt;`_")</f>
+        <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I3" s="4">
         <f>C3/H3</f>
-        <v>9.99</v>
+        <v>0.2104</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J18" si="0">A3*$J$1</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="4">
+        <f>I3*A3*L$1</f>
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <f>(MAX(C3,L3))</f>
+        <v>10.52</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="R3" s="1">
+        <f>Q3/P3</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.99</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3.32</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
-      </c>
-      <c r="F4" s="1">
-        <v>545315</v>
+        <f>CONCATENATE("`",F4," &lt;",G4,"&gt;`_")</f>
+        <v>`5448T2 &lt;https://www.mcmaster.com/#5448T2&gt;`_</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="4">
         <f>C4/H4</f>
-        <v>7.99</v>
+        <v>3.32</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="4">
+        <f>I4*A4*L$1</f>
+        <v>6.64</v>
+      </c>
+      <c r="M4" s="4">
+        <f>(MAX(C4,L4))</f>
+        <v>6.64</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>206.93</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R12" si="1">Q4/P4</f>
+        <v>103.465</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.49</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4.4000000000000004</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
-      </c>
-      <c r="F5" s="1">
-        <v>634310</v>
+        <f>CONCATENATE("`",F5," &lt;",G5,"&gt;`_")</f>
+        <v>`92005A220 &lt;https://www.mcmaster.com/#92005A226&gt;`_</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I5" s="4">
         <f>C5/H5</f>
-        <v>3.49</v>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="4">
+        <f>I5*A5*L$1</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="M5" s="4">
+        <f>(MAX(C5,L5))</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>284.66000000000003</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>94.88666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.97</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>`17HS13-0404S &lt;http://www.omc-stepperonline.com/nema-17-stepper-motor-34mm-12v-04a-26ncm37ozin-17hs130404s-p-166.html&gt;`_</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
+        <f>CONCATENATE("`",F6," &lt;",G6,"&gt;`_")</f>
+        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I6" s="4">
         <f>C6/H6</f>
-        <v>6.97</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="4">
+        <f>I6*A6*L$1</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>(MAX(C6,L6))</f>
+        <v>10</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>362.39</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>90.597499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>CONCATENATE("`",F7," &lt;",G7,"&gt;`_")</f>
+        <v>`92000A120 &lt;https://www.mcmaster.com/#92000A120&gt;`_</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <f>C7/H7</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="4">
+        <f>I7*A7*L$1</f>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <f>(MAX(C7,L7))</f>
+        <v>4.7</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>441.56</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>88.311999999999998</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>CONCATENATE("`",F8," &lt;",G8,"&gt;`_")</f>
+        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4">
+        <f>C8/H8</f>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="4">
+        <f>I8*A8*L$1</f>
+        <v>4.032</v>
+      </c>
+      <c r="M8" s="4">
+        <f>(MAX(C8,L8))</f>
+        <v>7.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>521.02</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>86.836666666666659</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="str">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
+        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <f>C9/H9</f>
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="4">
+        <f>I9*A9*L$1</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="M9" s="4">
+        <f>(MAX(C9,L9))</f>
+        <v>1.85</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>600.80999999999995</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>85.83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>`B00NQ2H8YU &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011&gt;`_</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D16" si="2">CONCATENATE("`",F9," &lt;",G9,"&gt;`_")</f>
-        <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>1</v>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.32</v>
+        <v>59</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5.33</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>`5448T2 &lt;https://www.mcmaster.com/#5448T2&gt;`_</v>
+        <f>CONCATENATE("`",F10," &lt;",G10,"&gt;`_")</f>
+        <v>`6479K78 &lt;https://www.mcmaster.com/#6479K78&gt;`_</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="4">
+        <f>C10/H10</f>
+        <v>5.33</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="4">
+        <f>I10*A10*L$1</f>
+        <v>10.66</v>
+      </c>
+      <c r="M10" s="4">
+        <f>(MAX(C10,L10))</f>
+        <v>10.66</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>680.6</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>3.32</v>
+        <v>85.075000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.32</v>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9.99</v>
       </c>
       <c r="D11" s="1" t="str">
+        <f t="shared" ref="D11:D15" si="2">CONCATENATE("`",F11," &lt;",G11,"&gt;`_")</f>
+        <v>`634050 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>634050</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f>C11/H11</f>
+        <v>9.99</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="4">
+        <f t="shared" ref="L11:L17" si="3">I11*A11*L$1</f>
+        <v>19.98</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11:M17" si="4">(MAX(C11,L11))</f>
+        <v>19.98</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>760.6</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>84.51111111111112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="D12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`92005A220 &lt;https://www.mcmaster.com/#92005A226&gt;`_</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>4.3200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>CONCATENATE("`",F12," &lt;",G12,"&gt;`_")</f>
-        <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
+      </c>
+      <c r="F12" s="1">
+        <v>545315</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <f>C12/H12</f>
-        <v>0.1</v>
+        <v>7.99</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>15.98</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>15.98</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>840.71</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>84.070999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>10</v>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.64</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3.49</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
-        <v>`92000A120 &lt;https://www.mcmaster.com/#92000A120&gt;`_</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
+      </c>
+      <c r="F13" s="1">
+        <v>634310</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <f>C13/H13</f>
-        <v>2.64E-2</v>
+        <v>3.49</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>6.98</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="4"/>
+        <v>6.98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>10</v>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7.2</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7.99</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
+        <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14400000000000002</v>
+        <f t="shared" ref="I14:I17" si="5">C14/H14</f>
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>7.99</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>7.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>2</v>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.01</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`12755t73 &lt;https://www.mcmaster.com/#12755t73&gt;`_</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>`B00NQ2H8YU &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/dp/B00NQ2H8YU/ref=sr_1_1?rps=1&amp;ie=UTF8&amp;qid=1488498852&amp;sr=8-1&amp;keywords=LMF8UU&amp;refinements=p_85%3A2470955011&gt;`_</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="5"/>
+        <v>6.01</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>12.02</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>12.02</v>
+      </c>
+      <c r="P15" s="7">
+        <f>SUM(L2:L18)</f>
+        <v>163.91126666666668</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>SUM(M2:M18)</f>
+        <v>206.41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9">
         <v>14.31</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D16:D17" si="6">CONCATENATE("`",F16," &lt;",G16,"&gt;`_")</f>
         <v>`SJ5746-0-ND &lt;https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456&gt;`_</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>144</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9375000000000005E-2</v>
       </c>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>14.31</v>
+      </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="7"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>`255-5122-ND &lt;https://www.digikey.com/products/en?keywords=255-5122-nd&gt;`_</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="5"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9">
+        <v>18.39</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>CONCATENATE("`",F18," &lt;",G18,"&gt;`_")</f>
+        <v>`17HS24-0644S &lt;https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s&gt;`_</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <f>C18/H18</f>
+        <v>18.39</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="4">
+        <f>I18*A18*L$1</f>
+        <v>36.78</v>
+      </c>
+      <c r="M18" s="4">
+        <f>(MAX(C18,L18))</f>
+        <v>36.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A11:A13 A16:A17 A14:A15" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D78063B-233C-C843-9F2B-73873A549A09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>